--- a/jpr_version2/configurationFile.xlsx
+++ b/jpr_version2/configurationFile.xlsx
@@ -15,9 +15,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>박스</t>
+  </si>
+  <si>
+    <t>깔개
+(+가이드)</t>
+  </si>
+  <si>
+    <t>상부</t>
+  </si>
+  <si>
+    <t>하부</t>
+  </si>
+  <si>
+    <t>행잉</t>
+  </si>
+  <si>
+    <t>평대</t>
+  </si>
+  <si>
+    <t>배너</t>
+  </si>
+  <si>
+    <t>긴박스</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>1번</t>
+  </si>
+  <si>
+    <t>삽지</t>
+  </si>
+  <si>
+    <t>대박스</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>이형</t>
+  </si>
+  <si>
+    <t>2번</t>
+  </si>
+  <si>
+    <t>쫄대</t>
+  </si>
+  <si>
+    <t>소박스</t>
+  </si>
+  <si>
+    <t>가이드</t>
+  </si>
+  <si>
+    <t>3번</t>
+  </si>
+  <si>
+    <t>타공</t>
+  </si>
+  <si>
+    <t>포스터</t>
+  </si>
+  <si>
+    <t>배경만</t>
+  </si>
+  <si>
+    <t>2개</t>
   </si>
 </sst>
 </file>
@@ -362,50 +429,158 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s"/>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s"/>
-      <c r="B5" t="s"/>
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s"/>
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s"/>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s"/>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s"/>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s"/>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/jpr_version2/configurationFile.xlsx
+++ b/jpr_version2/configurationFile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>박스</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>2개</t>
+  </si>
+  <si>
+    <t>2장</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -543,11 +546,9 @@
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="s"/>
@@ -556,7 +557,7 @@
       <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s"/>
     </row>
@@ -567,7 +568,7 @@
       <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s"/>
     </row>
@@ -578,7 +579,7 @@
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s"/>
     </row>
